--- a/public/simples/الدائرى تمهيدى بنين.xlsx
+++ b/public/simples/الدائرى تمهيدى بنين.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\charity\SLS System\تمهيدى - 2024-2025\Ald2ry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed Elsayed\Desktop\sidigaberAdmin\public\simples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871A482A-BE7E-4D4D-9367-DEF37A98E137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3077C0-AA63-4273-96E3-2F2B26E92CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="14544" windowHeight="12336" xr2:uid="{57AC980A-7F51-4789-AF6B-F3EFE678C2EE}"/>
+    <workbookView xWindow="3330" yWindow="0" windowWidth="17160" windowHeight="10920" xr2:uid="{57AC980A-7F51-4789-AF6B-F3EFE678C2EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="316">
   <si>
     <t>name</t>
   </si>
@@ -526,6 +517,462 @@
   </si>
   <si>
     <t>يونس مسعود السيد مسعود</t>
+  </si>
+  <si>
+    <t>32104280200095</t>
+  </si>
+  <si>
+    <t>32010120200051</t>
+  </si>
+  <si>
+    <t>32010290202512</t>
+  </si>
+  <si>
+    <t>32108110201351</t>
+  </si>
+  <si>
+    <t>32010040200271</t>
+  </si>
+  <si>
+    <t>32102060200474</t>
+  </si>
+  <si>
+    <t>32010220201799</t>
+  </si>
+  <si>
+    <t>32104170201231</t>
+  </si>
+  <si>
+    <t>32103020201873</t>
+  </si>
+  <si>
+    <t>32012120202235</t>
+  </si>
+  <si>
+    <t>32108210202436</t>
+  </si>
+  <si>
+    <t>32012290200911</t>
+  </si>
+  <si>
+    <t>32106160200418</t>
+  </si>
+  <si>
+    <t>32011190200691</t>
+  </si>
+  <si>
+    <t>32012080203195</t>
+  </si>
+  <si>
+    <t>32010021500035</t>
+  </si>
+  <si>
+    <t>32012120202014</t>
+  </si>
+  <si>
+    <t>32103150200771</t>
+  </si>
+  <si>
+    <t>32102020200552</t>
+  </si>
+  <si>
+    <t>32101160200793</t>
+  </si>
+  <si>
+    <t>32012310201014</t>
+  </si>
+  <si>
+    <t>32102010201593</t>
+  </si>
+  <si>
+    <t>32108090202356</t>
+  </si>
+  <si>
+    <t>32102220200832</t>
+  </si>
+  <si>
+    <t>32011220200098</t>
+  </si>
+  <si>
+    <t>32010100204735</t>
+  </si>
+  <si>
+    <t>32108110200452</t>
+  </si>
+  <si>
+    <t>32012160202572</t>
+  </si>
+  <si>
+    <t>32109090200694</t>
+  </si>
+  <si>
+    <t>32011020201332</t>
+  </si>
+  <si>
+    <t>32108210200174</t>
+  </si>
+  <si>
+    <t>32101070202037</t>
+  </si>
+  <si>
+    <t>32010170202853</t>
+  </si>
+  <si>
+    <t>32010100200233</t>
+  </si>
+  <si>
+    <t>32011010201237</t>
+  </si>
+  <si>
+    <t>32102130200272</t>
+  </si>
+  <si>
+    <t>32010220201535</t>
+  </si>
+  <si>
+    <t>32012180200452</t>
+  </si>
+  <si>
+    <t>32101210203071</t>
+  </si>
+  <si>
+    <t>32010260200612</t>
+  </si>
+  <si>
+    <t>32011280201697</t>
+  </si>
+  <si>
+    <t>32011220200578</t>
+  </si>
+  <si>
+    <t>32102270201171</t>
+  </si>
+  <si>
+    <t>32011040200456</t>
+  </si>
+  <si>
+    <t>32105080200313</t>
+  </si>
+  <si>
+    <t>32106250200077</t>
+  </si>
+  <si>
+    <t>32011120200635</t>
+  </si>
+  <si>
+    <t>32103130201011</t>
+  </si>
+  <si>
+    <t>32011110202338</t>
+  </si>
+  <si>
+    <t>32104270200194</t>
+  </si>
+  <si>
+    <t>32010250200835</t>
+  </si>
+  <si>
+    <t>32107290202435</t>
+  </si>
+  <si>
+    <t>32105090201415</t>
+  </si>
+  <si>
+    <t>32109130200374</t>
+  </si>
+  <si>
+    <t>32107260200438</t>
+  </si>
+  <si>
+    <t>32011080200734</t>
+  </si>
+  <si>
+    <t>32102090200614</t>
+  </si>
+  <si>
+    <t>32011080201633</t>
+  </si>
+  <si>
+    <t>32102210202055</t>
+  </si>
+  <si>
+    <t>32107100201535</t>
+  </si>
+  <si>
+    <t>32102050300395</t>
+  </si>
+  <si>
+    <t>32105120200575</t>
+  </si>
+  <si>
+    <t>32011200201853</t>
+  </si>
+  <si>
+    <t>32011200203619</t>
+  </si>
+  <si>
+    <t>32106060201018</t>
+  </si>
+  <si>
+    <t>32103030200832</t>
+  </si>
+  <si>
+    <t>32104290200573</t>
+  </si>
+  <si>
+    <t>32105050203032</t>
+  </si>
+  <si>
+    <t>32108250202773</t>
+  </si>
+  <si>
+    <t>32011290203256</t>
+  </si>
+  <si>
+    <t>32012250200293</t>
+  </si>
+  <si>
+    <t>32102230202019</t>
+  </si>
+  <si>
+    <t>32101140201556</t>
+  </si>
+  <si>
+    <t>32010190202051</t>
+  </si>
+  <si>
+    <t>32012280201057</t>
+  </si>
+  <si>
+    <t>32012050201856</t>
+  </si>
+  <si>
+    <t>32107230200794</t>
+  </si>
+  <si>
+    <t>32011210200758</t>
+  </si>
+  <si>
+    <t>32102280201293</t>
+  </si>
+  <si>
+    <t>32011140201352</t>
+  </si>
+  <si>
+    <t>32102230201012</t>
+  </si>
+  <si>
+    <t>32102230202051</t>
+  </si>
+  <si>
+    <t>32104070200599</t>
+  </si>
+  <si>
+    <t>32107180203096</t>
+  </si>
+  <si>
+    <t>32012200204417</t>
+  </si>
+  <si>
+    <t>32101210200439</t>
+  </si>
+  <si>
+    <t>32103110202399</t>
+  </si>
+  <si>
+    <t>32010010202032</t>
+  </si>
+  <si>
+    <t>32103010203657</t>
+  </si>
+  <si>
+    <t>32101140201459</t>
+  </si>
+  <si>
+    <t>32012100201771</t>
+  </si>
+  <si>
+    <t>32102270201112</t>
+  </si>
+  <si>
+    <t>32104020200318</t>
+  </si>
+  <si>
+    <t>32107120200934</t>
+  </si>
+  <si>
+    <t>32010120201333</t>
+  </si>
+  <si>
+    <t>32012170200411</t>
+  </si>
+  <si>
+    <t>32102220201316</t>
+  </si>
+  <si>
+    <t>32010220200679</t>
+  </si>
+  <si>
+    <t>32107060200077</t>
+  </si>
+  <si>
+    <t>32105120200478</t>
+  </si>
+  <si>
+    <t>32012120201239</t>
+  </si>
+  <si>
+    <t>32105270200891</t>
+  </si>
+  <si>
+    <t>32109260202891</t>
+  </si>
+  <si>
+    <t>32103020201652</t>
+  </si>
+  <si>
+    <t>32010200202896</t>
+  </si>
+  <si>
+    <t>32103150200437</t>
+  </si>
+  <si>
+    <t>32011160202037</t>
+  </si>
+  <si>
+    <t>32108050201918</t>
+  </si>
+  <si>
+    <t>32106230201417</t>
+  </si>
+  <si>
+    <t>32108100201116</t>
+  </si>
+  <si>
+    <t>32011030201977</t>
+  </si>
+  <si>
+    <t>32105270200514</t>
+  </si>
+  <si>
+    <t>32011020201855</t>
+  </si>
+  <si>
+    <t>32108050200199</t>
+  </si>
+  <si>
+    <t>32106290200231</t>
+  </si>
+  <si>
+    <t>32108010200536</t>
+  </si>
+  <si>
+    <t>32104220201319</t>
+  </si>
+  <si>
+    <t>32109290203736</t>
+  </si>
+  <si>
+    <t>32105300201693</t>
+  </si>
+  <si>
+    <t>32106160201953</t>
+  </si>
+  <si>
+    <t>32010210201855</t>
+  </si>
+  <si>
+    <t>32108180201677</t>
+  </si>
+  <si>
+    <t>32109110202699</t>
+  </si>
+  <si>
+    <t>32011190201493</t>
+  </si>
+  <si>
+    <t>32109290203116</t>
+  </si>
+  <si>
+    <t>32106290200517</t>
+  </si>
+  <si>
+    <t>32011290201059</t>
+  </si>
+  <si>
+    <t>32101250201594</t>
+  </si>
+  <si>
+    <t>32011110204918</t>
+  </si>
+  <si>
+    <t>32103260201552</t>
+  </si>
+  <si>
+    <t>32011100200256</t>
+  </si>
+  <si>
+    <t>32011170200539</t>
+  </si>
+  <si>
+    <t>32103010202138</t>
+  </si>
+  <si>
+    <t>32108010201435</t>
+  </si>
+  <si>
+    <t>32109140203495</t>
+  </si>
+  <si>
+    <t>32012070201518</t>
+  </si>
+  <si>
+    <t>32101210203551</t>
+  </si>
+  <si>
+    <t>32108170200575</t>
+  </si>
+  <si>
+    <t>32010070200233</t>
+  </si>
+  <si>
+    <t>32011100201112</t>
+  </si>
+  <si>
+    <t>32011170200555</t>
+  </si>
+  <si>
+    <t>32107010200459</t>
+  </si>
+  <si>
+    <t>32010130200335</t>
+  </si>
+  <si>
+    <t>32108210202592</t>
+  </si>
+  <si>
+    <t>32010211201735</t>
+  </si>
+  <si>
+    <t>32102120201076</t>
+  </si>
+  <si>
+    <t>32109180201517</t>
+  </si>
+  <si>
+    <t>32107120201477</t>
+  </si>
+  <si>
+    <t>32101120200634</t>
+  </si>
+  <si>
+    <t>32012020200995</t>
+  </si>
+  <si>
+    <t>32104140200419</t>
+  </si>
+  <si>
+    <t>32102170202251</t>
   </si>
 </sst>
 </file>
@@ -917,18 +1364,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7835FAE8-C31D-4534-9A1F-DE56C901F3DC}">
   <dimension ref="A1:I153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F153"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
@@ -956,9 +1403,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>32104280200095</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -985,9 +1432,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>32010120200051</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1014,9 +1461,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>32010290202512</v>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -1043,9 +1490,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>32108110201351</v>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -1072,9 +1519,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>32010040200271</v>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -1101,9 +1548,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>32102060200474</v>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -1130,9 +1577,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>32010220201799</v>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -1159,9 +1606,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>32104170201231</v>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -1188,9 +1635,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>32103020201873</v>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -1217,9 +1664,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>32012120202235</v>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
@@ -1246,9 +1693,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>32108210202436</v>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -1275,9 +1722,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>32012290200911</v>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -1304,9 +1751,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>32106160200418</v>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -1333,9 +1780,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>32011190200691</v>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1362,9 +1809,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>32012080203195</v>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1391,9 +1838,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>32010021500035</v>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
@@ -1420,9 +1867,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>32012120202014</v>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="B18" t="s">
         <v>28</v>
@@ -1449,9 +1896,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>32103150200771</v>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -1478,9 +1925,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>32102020200552</v>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -1507,9 +1954,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>32101160200793</v>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="B21" t="s">
         <v>31</v>
@@ -1536,9 +1983,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>32012310201014</v>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
@@ -1565,9 +2012,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>32102010201593</v>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="B23" t="s">
         <v>33</v>
@@ -1594,9 +2041,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>32108090202356</v>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
@@ -1623,9 +2070,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>32102220200832</v>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
@@ -1652,9 +2099,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>32011220200098</v>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="B26" t="s">
         <v>36</v>
@@ -1681,9 +2128,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>32010100204735</v>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
@@ -1710,9 +2157,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>32108110200452</v>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="B28" t="s">
         <v>38</v>
@@ -1739,9 +2186,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>32012160202572</v>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="B29" t="s">
         <v>39</v>
@@ -1768,9 +2215,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>32109090200694</v>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="B30" t="s">
         <v>40</v>
@@ -1797,9 +2244,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>32011020201332</v>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="B31" t="s">
         <v>41</v>
@@ -1826,9 +2273,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>32108210200174</v>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="B32" t="s">
         <v>42</v>
@@ -1855,9 +2302,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32101070202037</v>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="B33" t="s">
         <v>43</v>
@@ -1884,9 +2331,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>32010170202853</v>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="B34" t="s">
         <v>44</v>
@@ -1913,9 +2360,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>32010100200233</v>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="B35" t="s">
         <v>45</v>
@@ -1942,9 +2389,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>32011010201237</v>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="B36" t="s">
         <v>46</v>
@@ -1971,9 +2418,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>32102130200272</v>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="B37" t="s">
         <v>47</v>
@@ -2000,9 +2447,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>32010220201535</v>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="B38" t="s">
         <v>48</v>
@@ -2029,9 +2476,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>32012180200452</v>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="B39" t="s">
         <v>49</v>
@@ -2058,9 +2505,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>32101210203071</v>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="B40" t="s">
         <v>50</v>
@@ -2087,9 +2534,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>32010260200612</v>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="B41" t="s">
         <v>51</v>
@@ -2116,9 +2563,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>32011280201697</v>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="B42" t="s">
         <v>52</v>
@@ -2145,9 +2592,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>32011220200578</v>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="B43" t="s">
         <v>53</v>
@@ -2174,9 +2621,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>32102270201171</v>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="B44" t="s">
         <v>54</v>
@@ -2203,9 +2650,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>32011040200456</v>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="B45" t="s">
         <v>55</v>
@@ -2232,9 +2679,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>32105080200313</v>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="B46" t="s">
         <v>56</v>
@@ -2261,9 +2708,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>32106250200077</v>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="B47" t="s">
         <v>57</v>
@@ -2290,9 +2737,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>32011120200635</v>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="B48" t="s">
         <v>58</v>
@@ -2319,9 +2766,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>32103130201011</v>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="B49" t="s">
         <v>59</v>
@@ -2348,9 +2795,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>32011110202338</v>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="B50" t="s">
         <v>60</v>
@@ -2377,9 +2824,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>32104270200194</v>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B51" t="s">
         <v>61</v>
@@ -2406,9 +2853,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>32010250200835</v>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="B52" t="s">
         <v>62</v>
@@ -2435,9 +2882,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>32107290202435</v>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="B53" t="s">
         <v>63</v>
@@ -2464,9 +2911,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>32105090201415</v>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="B54" t="s">
         <v>64</v>
@@ -2493,9 +2940,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>32109130200374</v>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="B55" t="s">
         <v>65</v>
@@ -2522,9 +2969,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>32107260200438</v>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="B56" t="s">
         <v>66</v>
@@ -2551,9 +2998,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>32011080200734</v>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="B57" t="s">
         <v>67</v>
@@ -2580,9 +3027,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>32102090200614</v>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="B58" t="s">
         <v>68</v>
@@ -2609,9 +3056,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>32011080201633</v>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="B59" t="s">
         <v>69</v>
@@ -2638,9 +3085,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>32102210202055</v>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="B60" t="s">
         <v>70</v>
@@ -2667,9 +3114,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>32107100201535</v>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="B61" t="s">
         <v>71</v>
@@ -2696,9 +3143,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>32102050300395</v>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="B62" t="s">
         <v>72</v>
@@ -2725,9 +3172,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>32105120200575</v>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B63" t="s">
         <v>73</v>
@@ -2754,9 +3201,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>32011200201853</v>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="B64" t="s">
         <v>74</v>
@@ -2783,9 +3230,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>32011200203619</v>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="B65" t="s">
         <v>75</v>
@@ -2812,9 +3259,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>32106060201018</v>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="B66" t="s">
         <v>76</v>
@@ -2841,9 +3288,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>32103030200832</v>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="B67" t="s">
         <v>77</v>
@@ -2870,9 +3317,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>32104290200573</v>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="B68" t="s">
         <v>78</v>
@@ -2899,9 +3346,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>32105050203032</v>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="B69" t="s">
         <v>79</v>
@@ -2928,9 +3375,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>32108250202773</v>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="B70" t="s">
         <v>80</v>
@@ -2957,9 +3404,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>32011290203256</v>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="B71" t="s">
         <v>81</v>
@@ -2986,9 +3433,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>32012250200293</v>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="B72" t="s">
         <v>82</v>
@@ -3015,9 +3462,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>32102230202019</v>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="B73" t="s">
         <v>83</v>
@@ -3044,9 +3491,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>32101140201556</v>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="B74" t="s">
         <v>84</v>
@@ -3073,9 +3520,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>32010190202051</v>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="B75" t="s">
         <v>85</v>
@@ -3102,9 +3549,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>32012280201057</v>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="B76" t="s">
         <v>86</v>
@@ -3131,9 +3578,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>32012050201856</v>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="B77" t="s">
         <v>87</v>
@@ -3160,9 +3607,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>32107230200794</v>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="B78" t="s">
         <v>88</v>
@@ -3189,9 +3636,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>32011210200758</v>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="B79" t="s">
         <v>89</v>
@@ -3218,9 +3665,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>32102280201293</v>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="B80" t="s">
         <v>90</v>
@@ -3247,9 +3694,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>32011140201352</v>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="B81" t="s">
         <v>91</v>
@@ -3276,9 +3723,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>32102230201012</v>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="B82" t="s">
         <v>92</v>
@@ -3305,9 +3752,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>32102230202051</v>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="B83" t="s">
         <v>93</v>
@@ -3334,9 +3781,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>32104070200599</v>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="B84" t="s">
         <v>94</v>
@@ -3363,9 +3810,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>32107180203096</v>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="B85" t="s">
         <v>95</v>
@@ -3392,9 +3839,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>32012200204417</v>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="B86" t="s">
         <v>96</v>
@@ -3421,9 +3868,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>32101210200439</v>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="B87" t="s">
         <v>97</v>
@@ -3450,9 +3897,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>32103110202399</v>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="B88" t="s">
         <v>98</v>
@@ -3479,9 +3926,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>32010010202032</v>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="B89" t="s">
         <v>99</v>
@@ -3508,9 +3955,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>32103010203657</v>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="B90" t="s">
         <v>100</v>
@@ -3537,9 +3984,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>32101140201459</v>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="B91" t="s">
         <v>101</v>
@@ -3566,9 +4013,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>32012100201771</v>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="B92" t="s">
         <v>102</v>
@@ -3595,9 +4042,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>32102270201112</v>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="B93" t="s">
         <v>103</v>
@@ -3624,9 +4071,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>32104020200318</v>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="B94" t="s">
         <v>104</v>
@@ -3653,9 +4100,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>32107120200934</v>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="B95" t="s">
         <v>105</v>
@@ -3682,9 +4129,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>32010120201333</v>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="B96" t="s">
         <v>106</v>
@@ -3711,9 +4158,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>32012170200411</v>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="B97" t="s">
         <v>107</v>
@@ -3740,9 +4187,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>32102220201316</v>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="B98" t="s">
         <v>108</v>
@@ -3769,9 +4216,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>32010220200679</v>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="B99" t="s">
         <v>109</v>
@@ -3798,9 +4245,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>32107060200077</v>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="B100" t="s">
         <v>110</v>
@@ -3827,9 +4274,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>32105120200478</v>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="B101" t="s">
         <v>111</v>
@@ -3856,9 +4303,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>32012120201239</v>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="B102" t="s">
         <v>112</v>
@@ -3885,9 +4332,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>32105270200891</v>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="B103" t="s">
         <v>113</v>
@@ -3914,9 +4361,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <v>32109260202891</v>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="B104" t="s">
         <v>114</v>
@@ -3943,9 +4390,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <v>32103020201652</v>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="B105" t="s">
         <v>115</v>
@@ -3972,9 +4419,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <v>32010200202896</v>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="B106" t="s">
         <v>116</v>
@@ -4001,9 +4448,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>32103150200437</v>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="B107" t="s">
         <v>117</v>
@@ -4030,9 +4477,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>32011160202037</v>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="B108" t="s">
         <v>118</v>
@@ -4059,9 +4506,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <v>32108050201918</v>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="B109" t="s">
         <v>119</v>
@@ -4088,9 +4535,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110">
-        <v>32106230201417</v>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="B110" t="s">
         <v>120</v>
@@ -4117,9 +4564,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111">
-        <v>32108100201116</v>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="B111" t="s">
         <v>121</v>
@@ -4146,9 +4593,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112">
-        <v>32011030201977</v>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="B112" t="s">
         <v>122</v>
@@ -4175,9 +4622,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113">
-        <v>32105270200514</v>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="B113" t="s">
         <v>123</v>
@@ -4204,9 +4651,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>32011020201855</v>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="B114" t="s">
         <v>124</v>
@@ -4233,9 +4680,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>32108050200199</v>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="B115" t="s">
         <v>125</v>
@@ -4262,9 +4709,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>32106290200231</v>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="B116" t="s">
         <v>126</v>
@@ -4291,9 +4738,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>32108010200536</v>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="B117" t="s">
         <v>127</v>
@@ -4320,9 +4767,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118">
-        <v>32104220201319</v>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="B118" t="s">
         <v>128</v>
@@ -4349,9 +4796,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <v>32109290203736</v>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="B119" t="s">
         <v>129</v>
@@ -4378,9 +4825,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <v>32105300201693</v>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="B120" t="s">
         <v>130</v>
@@ -4407,9 +4854,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <v>32106160201953</v>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="B121" t="s">
         <v>131</v>
@@ -4436,9 +4883,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <v>32010210201855</v>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="B122" t="s">
         <v>132</v>
@@ -4465,9 +4912,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>32108180201677</v>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="B123" t="s">
         <v>133</v>
@@ -4494,9 +4941,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <v>32109110202699</v>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="B124" t="s">
         <v>134</v>
@@ -4523,9 +4970,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>32011190201493</v>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="B125" t="s">
         <v>135</v>
@@ -4552,9 +4999,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>32109290203116</v>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="B126" t="s">
         <v>136</v>
@@ -4581,9 +5028,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>32106290200517</v>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="B127" t="s">
         <v>137</v>
@@ -4610,9 +5057,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A128">
-        <v>32011290201059</v>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="B128" t="s">
         <v>138</v>
@@ -4639,9 +5086,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129">
-        <v>32101250201594</v>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="B129" t="s">
         <v>139</v>
@@ -4668,9 +5115,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130">
-        <v>32011110204918</v>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="B130" t="s">
         <v>140</v>
@@ -4697,9 +5144,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131">
-        <v>32103260201552</v>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="B131" t="s">
         <v>141</v>
@@ -4726,9 +5173,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132">
-        <v>32011100200256</v>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="B132" t="s">
         <v>142</v>
@@ -4755,9 +5202,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133">
-        <v>32011170200539</v>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="B133" t="s">
         <v>143</v>
@@ -4784,9 +5231,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134">
-        <v>32103010202138</v>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="B134" t="s">
         <v>144</v>
@@ -4813,9 +5260,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A135">
-        <v>32108010201435</v>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="B135" t="s">
         <v>145</v>
@@ -4842,9 +5289,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A136">
-        <v>32109140203495</v>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="B136" t="s">
         <v>146</v>
@@ -4871,9 +5318,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137">
-        <v>32012070201518</v>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="B137" t="s">
         <v>147</v>
@@ -4900,9 +5347,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A138">
-        <v>32101210203551</v>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="B138" t="s">
         <v>148</v>
@@ -4929,9 +5376,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A139">
-        <v>32108170200575</v>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="B139" t="s">
         <v>149</v>
@@ -4958,9 +5405,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A140">
-        <v>32010070200233</v>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="B140" t="s">
         <v>150</v>
@@ -4987,9 +5434,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A141">
-        <v>32011100201112</v>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="B141" t="s">
         <v>151</v>
@@ -5016,9 +5463,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A142">
-        <v>32011170200555</v>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="B142" t="s">
         <v>152</v>
@@ -5045,9 +5492,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A143">
-        <v>32107010200459</v>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="B143" t="s">
         <v>153</v>
@@ -5074,9 +5521,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A144">
-        <v>32010130200335</v>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="B144" t="s">
         <v>154</v>
@@ -5103,9 +5550,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A145">
-        <v>32108210202592</v>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="B145" t="s">
         <v>155</v>
@@ -5132,9 +5579,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A146">
-        <v>32010211201735</v>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="B146" t="s">
         <v>156</v>
@@ -5161,9 +5608,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A147">
-        <v>32102120201076</v>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="B147" t="s">
         <v>157</v>
@@ -5190,9 +5637,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A148">
-        <v>32109180201517</v>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="B148" t="s">
         <v>158</v>
@@ -5219,9 +5666,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A149">
-        <v>32107120201477</v>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="B149" t="s">
         <v>159</v>
@@ -5248,9 +5695,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A150">
-        <v>32101120200634</v>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="B150" t="s">
         <v>160</v>
@@ -5277,9 +5724,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A151">
-        <v>32012020200995</v>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="B151" t="s">
         <v>161</v>
@@ -5306,9 +5753,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A152">
-        <v>32104140200419</v>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="B152" t="s">
         <v>162</v>
@@ -5335,9 +5782,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A153">
-        <v>32102170202251</v>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="B153" t="s">
         <v>163</v>
